--- a/doc/需求列表.xlsx
+++ b/doc/需求列表.xlsx
@@ -11,7 +11,7 @@
     <sheet name="迭代1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>需求编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -231,6 +231,22 @@
 2.支持UT检查
 3.支持自动构建打包
 4.支持自动部署</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR_01_07 Eureka支持集群</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR_01_08 支持日志定位问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR_05_06 内置管理员数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认用户名密码：admin/admin123</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -753,51 +769,43 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -807,56 +815,64 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+    <row r="13" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="4">
@@ -866,141 +882,135 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="1"/>
+    <row r="21" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
+    <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1009,38 +1019,88 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+    <row r="27" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H22" xr:uid="{386F22A6-07DD-41B4-8F7E-EFD8709C5C0D}"/>
+  <autoFilter ref="A1:H25" xr:uid="{386F22A6-07DD-41B4-8F7E-EFD8709C5C0D}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/需求列表.xlsx
+++ b/doc/需求列表.xlsx
@@ -11,7 +11,7 @@
     <sheet name="迭代1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>需求编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -247,6 +247,19 @@
   </si>
   <si>
     <t>默认用户名密码：admin/admin123</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR_01_09 第一阶段部署任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.前端打包，通过nginx部署静态文件，单独一个docker
+2.Eureka server 一个Docker
+3.网关和AUTH各一个Docker
+4.一键打包
+5.一键启动
+6.脚本化归档</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -630,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -797,96 +810,98 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
+    <row r="11" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="70" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+    <row r="15" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4">
@@ -900,7 +915,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4">
@@ -910,25 +925,25 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="1">
@@ -938,89 +953,89 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+    <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
@@ -1030,32 +1045,28 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1065,13 +1076,21 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+    <row r="28" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -1096,11 +1115,21 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H25" xr:uid="{386F22A6-07DD-41B4-8F7E-EFD8709C5C0D}"/>
+  <autoFilter ref="A1:H26" xr:uid="{386F22A6-07DD-41B4-8F7E-EFD8709C5C0D}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/需求列表.xlsx
+++ b/doc/需求列表.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="迭代1" sheetId="2" r:id="rId2"/>
+    <sheet name="问题" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$26</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>需求编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -259,7 +260,12 @@
 3.网关和AUTH各一个Docker
 4.一键打包
 5.一键启动
-6.脚本化归档</t>
+6.脚本化归档
+7.改名：hobby_group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法在linux上编译client文件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -836,7 +842,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -1149,4 +1155,28 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C0710D-2EF1-48E1-8BA4-2E106DFEA083}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/需求列表.xlsx
+++ b/doc/需求列表.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="迭代1" sheetId="2" r:id="rId2"/>
     <sheet name="问题" sheetId="3" r:id="rId3"/>
+    <sheet name="安全" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$26</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>需求编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -266,6 +267,50 @@
   </si>
   <si>
     <t>无法在linux上编译client文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端部分文件太大，重新选择一个前端框架，自己学习从0开始搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何拆分前端文件至合适大小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何控制启动5个docker容器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码存储</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>措施</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动mysql docker容器的root密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化mysql docker容器的普通用户的密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>application中配置的mysql普通用户密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>java中初始化admin的密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx中证书的密码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -651,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -816,7 +861,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="121" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1159,15 +1204,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C0710D-2EF1-48E1-8BA4-2E106DFEA083}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -1175,6 +1220,79 @@
         <v>54</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E780EBB3-FB69-4535-8269-95E93976FD99}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/需求列表.xlsx
+++ b/doc/需求列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -696,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E780EBB3-FB69-4535-8269-95E93976FD99}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/doc/需求列表.xlsx
+++ b/doc/需求列表.xlsx
@@ -13,7 +13,7 @@
     <sheet name="安全" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$27</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>需求编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t>nginx中证书的密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker容器管理</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -694,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -875,98 +879,96 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
+    <row r="12" spans="1:8" ht="121" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>7</v>
+      </c>
       <c r="F13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="70" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+    <row r="16" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4">
@@ -980,7 +982,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4">
@@ -990,25 +992,25 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1">
@@ -1018,89 +1020,89 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+    <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1">
-        <v>2</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
@@ -1110,32 +1112,28 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="1"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1145,13 +1143,21 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+    <row r="29" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -1176,11 +1182,21 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H26" xr:uid="{386F22A6-07DD-41B4-8F7E-EFD8709C5C0D}"/>
+  <autoFilter ref="A1:H27" xr:uid="{386F22A6-07DD-41B4-8F7E-EFD8709C5C0D}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/需求列表.xlsx
+++ b/doc/需求列表.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="迭代1" sheetId="2" r:id="rId2"/>
-    <sheet name="问题" sheetId="3" r:id="rId3"/>
-    <sheet name="安全" sheetId="4" r:id="rId4"/>
+    <sheet name="约束" sheetId="5" r:id="rId2"/>
+    <sheet name="迭代1" sheetId="2" r:id="rId3"/>
+    <sheet name="问题" sheetId="3" r:id="rId4"/>
+    <sheet name="安全" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$27</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>需求编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -315,6 +316,18 @@
   </si>
   <si>
     <t>docker容器管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布活动时，支持选择多个场地+时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能包含,_-*特殊符号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -700,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -901,7 +914,9 @@
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E13" s="2">
         <v>7</v>
       </c>
@@ -1204,6 +1219,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD1300C-E4DF-429D-86E2-255E7D0FD122}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A9415-0C94-40FC-A424-139287364D07}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1218,7 +1261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C0710D-2EF1-48E1-8BA4-2E106DFEA083}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1257,7 +1300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E780EBB3-FB69-4535-8269-95E93976FD99}">
   <dimension ref="A1:C7"/>
   <sheetViews>

--- a/doc/需求列表.xlsx
+++ b/doc/需求列表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9D88F5-E548-481F-83C6-4ED01DB4886D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,9 +13,10 @@
     <sheet name="迭代1" sheetId="2" r:id="rId3"/>
     <sheet name="问题" sheetId="3" r:id="rId4"/>
     <sheet name="安全" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$28</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>需求编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -95,20 +97,6 @@
 3.支持编辑场地信息
 4.支持查看场地的资金记录
 5.支持删除场地信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.支持查看用户信息
-2.支持添加用户
-3.支持编辑/删除用户
-4.支持查看充值记录
-5.支持查看消费记录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.支持报名
-2.支持发布活动
-3.支持查询历史活动信息</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -328,6 +316,87 @@
   </si>
   <si>
     <t>不能包含,_-*特殊符号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>//默认取第一个场地信息（暂时只支持一个场地信息）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.支持查看用户信息
+2.支持添加用户
+3.支持编辑/删除用户
+4.支持查看充值记录
+5.支持查看消费记录
+6.支持管理员给用户充值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.个人充值入口
+2.管理员给用户充值
+3.管理员扣减用户费用
+4.管理员给场地会员卡充值
+5.管理员扣减场地费用
+6.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.支持报名
+2.支持发布活动
+3.支持查询历史活动信息
+4.支持取消活动
+5.支持删除活动
+6.支持同时存在多个活动
+7.支持活动结算
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Billing Management</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>recharge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumption</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>renew</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +451,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -418,7 +493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -427,6 +502,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -711,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -731,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -758,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -771,7 +850,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="4">
@@ -785,7 +864,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4">
@@ -799,7 +878,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="4">
@@ -813,7 +892,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -827,7 +906,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1">
@@ -841,7 +920,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1">
@@ -855,7 +934,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1">
@@ -869,7 +948,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1">
@@ -883,28 +962,28 @@
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="121" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="112" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -912,14 +991,12 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="2">
-        <v>7</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="1">
         <v>2</v>
       </c>
@@ -962,7 +1039,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,7 +1047,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -983,7 +1060,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4">
@@ -997,7 +1074,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4">
@@ -1011,7 +1088,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="4">
@@ -1025,7 +1102,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1">
@@ -1039,7 +1116,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1">
@@ -1053,10 +1130,10 @@
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -1064,74 +1141,74 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+    <row r="23" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4">
+    <row r="25" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
@@ -1141,32 +1218,28 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="1"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1176,13 +1249,21 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+    <row r="30" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -1206,12 +1287,22 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H27" xr:uid="{386F22A6-07DD-41B4-8F7E-EFD8709C5C0D}"/>
+  <autoFilter ref="A1:H28" xr:uid="{386F22A6-07DD-41B4-8F7E-EFD8709C5C0D}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1220,22 +1311,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD1300C-E4DF-429D-86E2-255E7D0FD122}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1276,22 +1377,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1316,44 +1417,106 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82717B80-1655-446A-BE02-A29AEE3C0D8C}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/需求列表.xlsx
+++ b/doc/需求列表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9D88F5-E548-481F-83C6-4ED01DB4886D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7EFA65-2ECC-4C92-BA30-DBAFC1728D71}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1464,7 +1464,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
